--- a/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
+++ b/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato.nascimento\eclipse-workspace\oldest\projeto-appium-bdd-master\src\main\java\br\com\rsinet\hub_bdd\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato.nascimento\eclipse-workspace\oldest\ProjetoAppiiumBdd\src\main\java\br\com\rsinet\hub_bdd\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8696A9D9-FF84-47CC-BB09-63975446E3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D43A0-140C-43AC-9AEB-16FC73F4E012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0BA68D2D-8DA9-4321-A4B9-3BA70DFA1B5B}"/>
   </bookViews>
@@ -204,10 +204,10 @@
     <t>videogame</t>
   </si>
   <si>
-    <t>renatoBue16</t>
-  </si>
-  <si>
     <t>Logando</t>
+  </si>
+  <si>
+    <t>buen11</t>
   </si>
 </sst>
 </file>
@@ -295,11 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,16 +638,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1291,15 +1291,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -1347,10 +1347,10 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>35</v>
@@ -1381,10 +1381,10 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1510,15 +1510,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1562,10 +1562,10 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,10 +1721,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,7 +1732,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1790,7 +1790,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
